--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-results-ery-dist-width-ratio.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-results-ery-dist-width-ratio.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T14:56:25+01:00</t>
+    <t>2023-12-28T12:16:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1832,17 +1832,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.25" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.4140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.80859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="199.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="204.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1851,28 +1851,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.58984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.33984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
